--- a/최종산출물/1-4 기능정의서.xlsx
+++ b/최종산출물/1-4 기능정의서.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="260">
   <si>
     <t>WBS 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -630,10 +630,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>섹션별 nav 클릭 시 해당 섹션 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sub1(about.html)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -660,10 +656,6 @@
     <t>pc-main-7</t>
   </si>
   <si>
-    <t>pc-about-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>scroll</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -672,26 +664,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pc-about-2</t>
-  </si>
-  <si>
-    <t>pc-about-3</t>
-  </si>
-  <si>
-    <t>탭 메뉴 클릭 시 노출 컨텐츠 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc-about-4</t>
-  </si>
-  <si>
-    <t>더보기 버튼 클릭 시 뉴스 추가 노출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc-about-5</t>
-  </si>
-  <si>
     <t>API</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -704,7 +676,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pc-career-1</t>
+    <t>해당 섹션 이동 시 border 값 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select 옵션 변경 시 매장 정보 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select 옵션 변경 시 연혁 내용 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select 옵션 변경 시 노출 공고 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub4(join.html)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkbox 미체크시 문구 노출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub5(career.php)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub5(career_list.php)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select 옵션 변경 시 해당 공고만 노출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub4(signin.html)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS, Jqeury</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보 미입력시 정보 입력 안내 alert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub6(career.php)</t>
+  </si>
+  <si>
+    <t>해당 정보 미입력시 정보 입력 안내 alert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이승아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이승아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명지애</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -712,90 +751,145 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pc-career-2</t>
-  </si>
-  <si>
-    <t>채용공고 오버 시 border, bg-color 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인하기 버튼 오버 시 color 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc-career-3</t>
-  </si>
-  <si>
-    <t>해당 섹션 이동 시 border 값 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc-career-4</t>
-  </si>
-  <si>
-    <t>select 옵션 변경 시 매장 정보 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select 옵션 변경 시 연혁 내용 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select 옵션 변경 시 노출 공고 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sub3(invest.html)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc-invest-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마우스 오버 시 박스 안 animation 효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc-invest-2</t>
-  </si>
-  <si>
-    <t>마우스 오버 시 하단 border shadow 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sub4(join.html)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc-join-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 메뉴 클릭 시 내용 하단 노출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc-join-2</t>
-  </si>
-  <si>
-    <t>checkbox 미체크시 문구 노출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc-join-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보 전체 입력 후 버튼 클릭 시 회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sub5(career.php)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc-carph-1</t>
+    <t>정재연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정재연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정재연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이승아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용언어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS, Jqeury, CSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS, Jqeury, CSS, JSON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHP, JS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m-foot-1</t>
+  </si>
+  <si>
+    <t>m-about-1</t>
+  </si>
+  <si>
+    <t>m-about-2</t>
+  </si>
+  <si>
+    <t>m-about-3</t>
+  </si>
+  <si>
+    <t>m-about-4</t>
+  </si>
+  <si>
+    <t>m-about-5</t>
+  </si>
+  <si>
+    <t>m-join-1</t>
+  </si>
+  <si>
+    <t>m-join-2</t>
+  </si>
+  <si>
+    <t>m-join-3</t>
+  </si>
+  <si>
+    <t>m-join-4</t>
+  </si>
+  <si>
+    <t>m-sign-1</t>
+  </si>
+  <si>
+    <t>m-carph-1</t>
+  </si>
+  <si>
+    <t>m-carph-2</t>
+  </si>
+  <si>
+    <t>m-carph-3</t>
+  </si>
+  <si>
+    <t>footer(m)</t>
+  </si>
+  <si>
+    <t>m-career-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m-career-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 메뉴 탭 시 내용 하단 노출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top 버튼 탭 시 최상단 이동</t>
+  </si>
+  <si>
+    <t>섹션별 nav 탭 시 해당 섹션 이동</t>
+  </si>
+  <si>
+    <t>탭 메뉴 탭 시 노출 컨텐츠 변경</t>
+  </si>
+  <si>
+    <t>더보기 버튼 탭 시 뉴스 추가 노출</t>
+  </si>
+  <si>
+    <t>정보 전체 입력 후 버튼 탭 시 회원가입</t>
+  </si>
+  <si>
+    <t>해당 정보 입력 후 버튼 탭 시 로그인</t>
+  </si>
+  <si>
+    <t>입사지원 버튼 탭 시 입사지원 완료</t>
+  </si>
+  <si>
+    <t>footer(m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m-foot-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC버전 보기 탭 시 PC홈페이지 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m-main-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강재민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS,  CSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc-gnb-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -803,232 +897,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>입사지원 버튼 클릭 시 입사지원 완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc-carph-2</t>
-  </si>
-  <si>
-    <t>pc-carph-3</t>
-  </si>
-  <si>
-    <t>sub5(career_list.php)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select 옵션 변경 시 해당 공고만 노출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sub4(signin.html)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc-sign-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 정보 입력 후 버튼 클릭 시 로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JS, Jqeury</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JS, Jqeury, CSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JS, Jqeury, CSS, JSON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PHP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PHP, JS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc-join-4</t>
-  </si>
-  <si>
-    <t>정보 미입력시 정보 입력 안내 alert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sub6(career.php)</t>
-  </si>
-  <si>
-    <t>해당 정보 미입력시 정보 입력 안내 alert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이승아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이승아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>명지애</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정우현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정재연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정재연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정재연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이승아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용언어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JS, Jqeury, CSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JS, Jqeury, CSS, JSON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PHP, JS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PHP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m-foot-1</t>
-  </si>
-  <si>
-    <t>m-about-1</t>
-  </si>
-  <si>
-    <t>m-about-2</t>
-  </si>
-  <si>
-    <t>m-about-3</t>
-  </si>
-  <si>
-    <t>m-about-4</t>
-  </si>
-  <si>
-    <t>m-about-5</t>
-  </si>
-  <si>
-    <t>m-join-1</t>
-  </si>
-  <si>
-    <t>m-join-2</t>
-  </si>
-  <si>
-    <t>m-join-3</t>
-  </si>
-  <si>
-    <t>m-join-4</t>
-  </si>
-  <si>
-    <t>m-sign-1</t>
-  </si>
-  <si>
-    <t>m-carph-1</t>
-  </si>
-  <si>
-    <t>m-carph-2</t>
-  </si>
-  <si>
-    <t>m-carph-3</t>
-  </si>
-  <si>
-    <t>footer(m)</t>
-  </si>
-  <si>
-    <t>m-career-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m-career-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 메뉴 탭 시 내용 하단 노출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>top 버튼 탭 시 최상단 이동</t>
-  </si>
-  <si>
-    <t>섹션별 nav 탭 시 해당 섹션 이동</t>
-  </si>
-  <si>
-    <t>탭 메뉴 탭 시 노출 컨텐츠 변경</t>
-  </si>
-  <si>
-    <t>더보기 버튼 탭 시 뉴스 추가 노출</t>
-  </si>
-  <si>
-    <t>정보 전체 입력 후 버튼 탭 시 회원가입</t>
-  </si>
-  <si>
-    <t>해당 정보 입력 후 버튼 탭 시 로그인</t>
-  </si>
-  <si>
-    <t>입사지원 버튼 탭 시 입사지원 완료</t>
-  </si>
-  <si>
-    <t>footer(m)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m-foot-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC버전 보기 탭 시 PC홈페이지 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m-main-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc-main-8</t>
+    <t>언어, 패밀리 사이트 탭 클릭시 컨텐츠 노출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc-gnb-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>햄버거 토글버튼 클릭시 사이트맵 노출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>강재민</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JS,  CSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc-gnb-2</t>
+    <t>pc-gnb-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mouseout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤더 마우스 아웃 시 노출된 컨텐츠 초기화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GNB, LNB 마우스 오버시 보더, 폰트 색상 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS, CSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마우스 오버 시 서브 메뉴 슬라이드 다운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc-gnb-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc-gnb-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤더 마우스 오버시 로고 색상 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setinterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그레스바 슬라이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강재민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS, CSS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1036,111 +973,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>언어, 패밀리 사이트 탭 클릭시 컨텐츠 노출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc-gnb-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>햄버거 토글버튼 클릭시 사이트맵 노출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강재민</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc-gnb-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mouseout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤더 마우스 아웃 시 노출된 컨텐츠 초기화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hover</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GNB, LNB 마우스 오버시 보더, 폰트 색상 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JS, CSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마우스 오버 시 서브 메뉴 슬라이드 다운</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc-gnb-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc-gnb-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤더 마우스 오버시 로고 색상 변경</t>
+    <t>하단 컨텐츠 유무 스크롤 다운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main(index.html)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탭메뉴 오버시 배경, 폰트 색상변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탭메뉴 클릭시  컨텐츠 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탭메뉴 컨텐츠 오버시 그레이스케일 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유진영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탭메뉴 컨텐츠 오버시 스케일 커지는 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탭메뉴 다운로드 클릭시 파일 다운로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub(sub.html)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc-sub-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>setinterval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로그레스바 슬라이드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강재민</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JS, CSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>click</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하단 컨텐츠 유무 스크롤 다운</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>main(index.html)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탭메뉴 오버시 배경, 폰트 색상변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탭메뉴 클릭시  컨텐츠 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탭메뉴 컨텐츠 오버시 그레이스케일 효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유진영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탭메뉴 컨텐츠 오버시 스케일 커지는 효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탭메뉴 다운로드 클릭시 파일 다운로드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1928,6 +1801,30 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1958,18 +1855,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1988,12 +1873,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2013,12 +1892,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2321,62 +2194,62 @@
   <sheetData>
     <row r="1" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="40" t="s">
+      <c r="C2" s="55"/>
+      <c r="D2" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="42"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="50"/>
     </row>
     <row r="3" spans="2:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="45"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="53"/>
     </row>
     <row r="4" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="55"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="5" t="s">
         <v>34</v>
       </c>
@@ -2439,8 +2312,8 @@
       </c>
     </row>
     <row r="5" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="56"/>
-      <c r="C5" s="57"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="6" t="s">
         <v>36</v>
       </c>
@@ -2503,10 +2376,10 @@
       </c>
     </row>
     <row r="6" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="59"/>
+      <c r="C6" s="63"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -2613,10 +2486,10 @@
       <c r="W9" s="24"/>
     </row>
     <row r="10" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="53"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -2807,10 +2680,10 @@
       <c r="W16" s="24"/>
     </row>
     <row r="17" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="51"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -2833,10 +2706,10 @@
       <c r="W17" s="26"/>
     </row>
     <row r="18" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="51"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -2859,10 +2732,10 @@
       <c r="W18" s="26"/>
     </row>
     <row r="19" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="51"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -2885,10 +2758,10 @@
       <c r="W19" s="26"/>
     </row>
     <row r="20" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="51"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -2911,10 +2784,10 @@
       <c r="W20" s="26"/>
     </row>
     <row r="21" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="53"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -3021,10 +2894,10 @@
       <c r="W24" s="24"/>
     </row>
     <row r="25" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="53"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -3075,10 +2948,10 @@
       <c r="W26" s="24"/>
     </row>
     <row r="27" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="53"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -3185,10 +3058,10 @@
       <c r="W30" s="27"/>
     </row>
     <row r="31" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="53"/>
+      <c r="C31" s="45"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -3267,10 +3140,10 @@
       <c r="W33" s="24"/>
     </row>
     <row r="34" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="53"/>
+      <c r="C34" s="45"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -3377,10 +3250,10 @@
       <c r="W37" s="29"/>
     </row>
     <row r="38" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="51"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
@@ -3403,10 +3276,10 @@
       <c r="W38" s="30"/>
     </row>
     <row r="39" spans="2:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="60" t="s">
+      <c r="B39" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="61"/>
+      <c r="C39" s="43"/>
       <c r="D39" s="31"/>
       <c r="E39" s="31"/>
       <c r="F39" s="31"/>
@@ -3478,13 +3351,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="D2:W3"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B38:C38"/>
@@ -3494,6 +3360,13 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B4:C5"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3516,10 +3389,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="65" t="s">
         <v>72</v>
       </c>
       <c r="C1" s="18" t="s">
@@ -3536,8 +3409,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
       <c r="C2" s="6" t="s">
         <v>64</v>
       </c>
@@ -3552,7 +3425,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="66" t="s">
         <v>69</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -3572,7 +3445,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="64"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="3" t="s">
         <v>78</v>
       </c>
@@ -3586,7 +3459,7 @@
       <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="3" t="s">
         <v>81</v>
       </c>
@@ -3600,7 +3473,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="64"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="3" t="s">
         <v>84</v>
       </c>
@@ -3618,7 +3491,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="64"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="3" t="s">
         <v>88</v>
       </c>
@@ -3630,7 +3503,7 @@
       <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="64"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="3" t="s">
         <v>89</v>
       </c>
@@ -3644,7 +3517,7 @@
       <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="64"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
@@ -3662,7 +3535,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="64"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
@@ -3672,7 +3545,7 @@
       <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:6" s="14" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="65"/>
+      <c r="A11" s="67"/>
       <c r="B11" s="4" t="s">
         <v>107</v>
       </c>
@@ -3690,7 +3563,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="70" t="s">
         <v>70</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -3704,7 +3577,7 @@
       <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="64"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="3" t="s">
         <v>96</v>
       </c>
@@ -3722,7 +3595,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="64"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="3" t="s">
         <v>95</v>
       </c>
@@ -3740,7 +3613,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="64"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="3" t="s">
         <v>114</v>
       </c>
@@ -3754,7 +3627,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="64"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="3" t="s">
         <v>97</v>
       </c>
@@ -3772,7 +3645,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="65"/>
+      <c r="A17" s="67"/>
       <c r="B17" s="4" t="s">
         <v>107</v>
       </c>
@@ -3790,7 +3663,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="68" t="s">
         <v>71</v>
       </c>
       <c r="B18" s="37" t="s">
@@ -3810,7 +3683,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="64"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="3" t="s">
         <v>117</v>
       </c>
@@ -3828,7 +3701,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="64"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="3" t="s">
         <v>118</v>
       </c>
@@ -3838,7 +3711,7 @@
       <c r="F20" s="15"/>
     </row>
     <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="64"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="3" t="s">
         <v>119</v>
       </c>
@@ -3848,7 +3721,7 @@
       <c r="F21" s="15"/>
     </row>
     <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="64"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="3" t="s">
         <v>120</v>
       </c>
@@ -3864,7 +3737,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="67"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="16" t="s">
         <v>107</v>
       </c>
@@ -3900,8 +3773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3915,22 +3788,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="41" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3945,13 +3818,13 @@
         <v>139</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3959,19 +3832,19 @@
         <v>137</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3979,19 +3852,19 @@
         <v>137</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -3999,19 +3872,19 @@
         <v>137</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4019,19 +3892,19 @@
         <v>137</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4039,19 +3912,19 @@
         <v>137</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4068,10 +3941,10 @@
         <v>153</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4079,19 +3952,19 @@
         <v>148</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4099,39 +3972,39 @@
         <v>148</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>286</v>
+        <v>248</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>287</v>
+        <v>249</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>286</v>
+        <v>248</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4139,19 +4012,19 @@
         <v>148</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>151</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>289</v>
+        <v>251</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4159,19 +4032,19 @@
         <v>148</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>139</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4179,19 +4052,19 @@
         <v>148</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>151</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4199,423 +4072,92 @@
         <v>148</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>215</v>
-      </c>
+    <row r="17" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F36" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F36"/>
@@ -4660,15 +4202,15 @@
         <v>134</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>145</v>
@@ -4677,15 +4219,15 @@
         <v>146</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>147</v>
@@ -4694,33 +4236,33 @@
         <v>140</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>141</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4728,7 +4270,7 @@
         <v>148</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>154</v>
@@ -4740,7 +4282,7 @@
         <v>67</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4754,13 +4296,13 @@
         <v>145</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4774,313 +4316,313 @@
         <v>140</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>224</v>
+        <v>187</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>225</v>
+        <v>188</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>140</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/최종산출물/1-4 기능정의서.xlsx
+++ b/최종산출물/1-4 기능정의서.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="279">
   <si>
     <t>WBS 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1014,6 +1014,84 @@
   </si>
   <si>
     <t>setinterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트 fadeIn, fadeOut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김조은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc-sub-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc-sub-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우측 원형내비게이션 클릭시 해당 섹션이동,
+백그라운드 컬러 변경,
+스크롤 위치에 따라 백그라운드 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트 마우스 아이콘 클릭시 아래 섹션으로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc-sub-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자 자동증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc-sub-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박스 해당위치에서 좌우에서 날아오게 하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc-sub-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 위치에서 연혁 2초마다 텍스트, 아이콘에 효과주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS, CSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc-sub-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당위치에서 더보기 버튼 클릭시 박스 나타나게 하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc-sub-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍보영상 플레이버튼 클릭시 모달창으로 영상띄우기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JQuery, CSS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1680,7 +1758,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1806,6 +1884,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2194,62 +2275,62 @@
   <sheetData>
     <row r="1" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="51"/>
     </row>
     <row r="3" spans="2:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="56"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="53"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="54"/>
     </row>
     <row r="4" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="59"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="5" t="s">
         <v>34</v>
       </c>
@@ -2312,8 +2393,8 @@
       </c>
     </row>
     <row r="5" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="60"/>
-      <c r="C5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="6" t="s">
         <v>36</v>
       </c>
@@ -2376,10 +2457,10 @@
       </c>
     </row>
     <row r="6" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="63"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -2486,10 +2567,10 @@
       <c r="W9" s="24"/>
     </row>
     <row r="10" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="45"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -2680,10 +2761,10 @@
       <c r="W16" s="24"/>
     </row>
     <row r="17" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="47"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -2706,10 +2787,10 @@
       <c r="W17" s="26"/>
     </row>
     <row r="18" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="47"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -2732,10 +2813,10 @@
       <c r="W18" s="26"/>
     </row>
     <row r="19" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="47"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -2758,10 +2839,10 @@
       <c r="W19" s="26"/>
     </row>
     <row r="20" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="47"/>
+      <c r="C20" s="48"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -2784,10 +2865,10 @@
       <c r="W20" s="26"/>
     </row>
     <row r="21" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="45"/>
+      <c r="C21" s="46"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -2894,10 +2975,10 @@
       <c r="W24" s="24"/>
     </row>
     <row r="25" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="45"/>
+      <c r="C25" s="46"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -2948,10 +3029,10 @@
       <c r="W26" s="24"/>
     </row>
     <row r="27" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="45"/>
+      <c r="C27" s="46"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -3058,10 +3139,10 @@
       <c r="W30" s="27"/>
     </row>
     <row r="31" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="45"/>
+      <c r="C31" s="46"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -3140,10 +3221,10 @@
       <c r="W33" s="24"/>
     </row>
     <row r="34" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="45"/>
+      <c r="C34" s="46"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -3250,10 +3331,10 @@
       <c r="W37" s="29"/>
     </row>
     <row r="38" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="47"/>
+      <c r="C38" s="48"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
@@ -3276,10 +3357,10 @@
       <c r="W38" s="30"/>
     </row>
     <row r="39" spans="2:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="43"/>
+      <c r="C39" s="44"/>
       <c r="D39" s="31"/>
       <c r="E39" s="31"/>
       <c r="F39" s="31"/>
@@ -3389,10 +3470,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="66" t="s">
         <v>72</v>
       </c>
       <c r="C1" s="18" t="s">
@@ -3409,8 +3490,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="62"/>
       <c r="C2" s="6" t="s">
         <v>64</v>
       </c>
@@ -3425,7 +3506,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="67" t="s">
         <v>69</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -3445,7 +3526,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66"/>
+      <c r="A4" s="67"/>
       <c r="B4" s="3" t="s">
         <v>78</v>
       </c>
@@ -3459,7 +3540,7 @@
       <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="66"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="3" t="s">
         <v>81</v>
       </c>
@@ -3473,7 +3554,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="66"/>
+      <c r="A6" s="67"/>
       <c r="B6" s="3" t="s">
         <v>84</v>
       </c>
@@ -3491,7 +3572,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="66"/>
+      <c r="A7" s="67"/>
       <c r="B7" s="3" t="s">
         <v>88</v>
       </c>
@@ -3503,7 +3584,7 @@
       <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="66"/>
+      <c r="A8" s="67"/>
       <c r="B8" s="3" t="s">
         <v>89</v>
       </c>
@@ -3517,7 +3598,7 @@
       <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="66"/>
+      <c r="A9" s="67"/>
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
@@ -3535,7 +3616,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="66"/>
+      <c r="A10" s="67"/>
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
@@ -3545,7 +3626,7 @@
       <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:6" s="14" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="67"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="4" t="s">
         <v>107</v>
       </c>
@@ -3563,7 +3644,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="71" t="s">
         <v>70</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -3577,7 +3658,7 @@
       <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="66"/>
+      <c r="A13" s="67"/>
       <c r="B13" s="3" t="s">
         <v>96</v>
       </c>
@@ -3595,7 +3676,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="66"/>
+      <c r="A14" s="67"/>
       <c r="B14" s="3" t="s">
         <v>95</v>
       </c>
@@ -3613,7 +3694,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="66"/>
+      <c r="A15" s="67"/>
       <c r="B15" s="3" t="s">
         <v>114</v>
       </c>
@@ -3627,7 +3708,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="66"/>
+      <c r="A16" s="67"/>
       <c r="B16" s="3" t="s">
         <v>97</v>
       </c>
@@ -3645,7 +3726,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="67"/>
+      <c r="A17" s="68"/>
       <c r="B17" s="4" t="s">
         <v>107</v>
       </c>
@@ -3663,7 +3744,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="69" t="s">
         <v>71</v>
       </c>
       <c r="B18" s="37" t="s">
@@ -3683,7 +3764,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="66"/>
+      <c r="A19" s="67"/>
       <c r="B19" s="3" t="s">
         <v>117</v>
       </c>
@@ -3701,7 +3782,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="66"/>
+      <c r="A20" s="67"/>
       <c r="B20" s="3" t="s">
         <v>118</v>
       </c>
@@ -3711,7 +3792,7 @@
       <c r="F20" s="15"/>
     </row>
     <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="66"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="3" t="s">
         <v>119</v>
       </c>
@@ -3721,7 +3802,7 @@
       <c r="F21" s="15"/>
     </row>
     <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="66"/>
+      <c r="A22" s="67"/>
       <c r="B22" s="3" t="s">
         <v>120</v>
       </c>
@@ -3737,7 +3818,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="69"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="16" t="s">
         <v>107</v>
       </c>
@@ -3773,8 +3854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3782,7 +3863,7 @@
     <col min="1" max="1" width="23" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -4087,7 +4168,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>257</v>
       </c>
@@ -4095,56 +4176,183 @@
         <v>258</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">

--- a/최종산출물/1-4 기능정의서.xlsx
+++ b/최종산출물/1-4 기능정의서.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="295">
   <si>
     <t>WBS 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1092,6 +1092,69 @@
   </si>
   <si>
     <t>JQuery, CSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc-list-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 제목을 클릭시 해당 내용페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc-list-2</t>
+  </si>
+  <si>
+    <t>notice(notice_list.php)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice(notice_write.php)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc-write-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice(notice_view.php)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc-view-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice(notice_confirm.php)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc-confirm-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력된 데이터 수정,삭제,목록으로 가기 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제버튼과 취소 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글쓰기 버튼 클릭시 글쓰기 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용 작성후 작석버튼 클릭시  데이터베이스 저장, 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3854,8 +3917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4329,19 +4392,104 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F29" s="1"/>

--- a/최종산출물/1-4 기능정의서.xlsx
+++ b/최종산출물/1-4 기능정의서.xlsx
@@ -1951,70 +1951,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2338,62 +2338,62 @@
   <sheetData>
     <row r="1" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="49" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="51"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="45"/>
     </row>
     <row r="3" spans="2:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="57"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="54"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="48"/>
     </row>
     <row r="4" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="60"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="5" t="s">
         <v>34</v>
       </c>
@@ -2456,8 +2456,8 @@
       </c>
     </row>
     <row r="5" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="61"/>
-      <c r="C5" s="62"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="6" t="s">
         <v>36</v>
       </c>
@@ -2520,10 +2520,10 @@
       </c>
     </row>
     <row r="6" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="64"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -2630,10 +2630,10 @@
       <c r="W9" s="24"/>
     </row>
     <row r="10" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="46"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -2824,10 +2824,10 @@
       <c r="W16" s="24"/>
     </row>
     <row r="17" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="48"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -2850,10 +2850,10 @@
       <c r="W17" s="26"/>
     </row>
     <row r="18" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="48"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -2876,10 +2876,10 @@
       <c r="W18" s="26"/>
     </row>
     <row r="19" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="48"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -2902,10 +2902,10 @@
       <c r="W19" s="26"/>
     </row>
     <row r="20" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="48"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -2928,10 +2928,10 @@
       <c r="W20" s="26"/>
     </row>
     <row r="21" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="46"/>
+      <c r="C21" s="56"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -3038,10 +3038,10 @@
       <c r="W24" s="24"/>
     </row>
     <row r="25" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="46"/>
+      <c r="C25" s="56"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -3092,10 +3092,10 @@
       <c r="W26" s="24"/>
     </row>
     <row r="27" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="46"/>
+      <c r="C27" s="56"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -3202,10 +3202,10 @@
       <c r="W30" s="27"/>
     </row>
     <row r="31" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="46"/>
+      <c r="C31" s="56"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -3284,10 +3284,10 @@
       <c r="W33" s="24"/>
     </row>
     <row r="34" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="46"/>
+      <c r="C34" s="56"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -3394,10 +3394,10 @@
       <c r="W37" s="29"/>
     </row>
     <row r="38" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="47" t="s">
+      <c r="B38" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="48"/>
+      <c r="C38" s="54"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
@@ -3420,10 +3420,10 @@
       <c r="W38" s="30"/>
     </row>
     <row r="39" spans="2:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="44"/>
+      <c r="C39" s="64"/>
       <c r="D39" s="31"/>
       <c r="E39" s="31"/>
       <c r="F39" s="31"/>
@@ -3495,6 +3495,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="D2:W3"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B38:C38"/>
@@ -3504,13 +3511,6 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B4:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3553,8 +3553,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="61"/>
-      <c r="B2" s="62"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="6" t="s">
         <v>64</v>
       </c>
@@ -3917,8 +3917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/최종산출물/1-4 기능정의서.xlsx
+++ b/최종산출물/1-4 기능정의서.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\1-4\최종산출물\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\유진영\Documents\GitHub\1-4\최종산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1FB1F8-A60B-435D-80EA-7FFA45650983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
+    <workbookView xWindow="228" yWindow="1296" windowWidth="13056" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="300">
   <si>
     <t>WBS 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1155,13 +1156,35 @@
   </si>
   <si>
     <t>내용 작성후 작석버튼 클릭시  데이터베이스 저장, 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login(login.php)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc-login-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디, 비밀번호 입력 후 로그인버튼 클릭시 
+'로그인 되었습니다'라는 alert 뜨고 회원정보가 나타남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디, 비밀번호를 입력하지 않고 로그인버튼 클릭시 
+'아이디 또는 비밀번호를 입력해주세요.'라는 alert가 뜸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc-login-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1821,7 +1844,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1860,12 +1883,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2323,77 +2340,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:W41"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="3" max="3" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.19921875" customWidth="1"/>
+    <col min="3" max="3" width="20.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="49" t="s">
+    <row r="1" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="43" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="45"/>
-    </row>
-    <row r="3" spans="2:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="48"/>
-    </row>
-    <row r="4" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="57" t="s">
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="43"/>
+    </row>
+    <row r="3" spans="2:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="46"/>
+    </row>
+    <row r="4" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="58"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="5" t="s">
         <v>34</v>
       </c>
@@ -2451,13 +2468,13 @@
       <c r="V4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="W4" s="21" t="s">
+      <c r="W4" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="59"/>
-      <c r="C5" s="60"/>
+    <row r="5" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="57"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="6" t="s">
         <v>36</v>
       </c>
@@ -2515,15 +2532,15 @@
       <c r="V5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W5" s="20" t="s">
+      <c r="W5" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="61" t="s">
+    <row r="6" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="62"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -2543,10 +2560,10 @@
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
-      <c r="W6" s="15"/>
-    </row>
-    <row r="7" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="22" t="s">
+      <c r="W6" s="13"/>
+    </row>
+    <row r="7" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="20" t="s">
         <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -2571,10 +2588,10 @@
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-      <c r="W7" s="15"/>
-    </row>
-    <row r="8" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="22" t="s">
+      <c r="W7" s="13"/>
+    </row>
+    <row r="8" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="20" t="s">
         <v>61</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -2599,10 +2616,10 @@
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-      <c r="W8" s="15"/>
-    </row>
-    <row r="9" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="23" t="s">
+      <c r="W8" s="13"/>
+    </row>
+    <row r="9" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="21" t="s">
         <v>61</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -2627,13 +2644,13 @@
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
-      <c r="W9" s="24"/>
-    </row>
-    <row r="10" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="55" t="s">
+      <c r="W9" s="22"/>
+    </row>
+    <row r="10" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="56"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -2653,10 +2670,10 @@
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
-      <c r="W10" s="25"/>
-    </row>
-    <row r="11" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="22" t="s">
+      <c r="W10" s="23"/>
+    </row>
+    <row r="11" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="20" t="s">
         <v>62</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -2681,10 +2698,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-      <c r="W11" s="15"/>
-    </row>
-    <row r="12" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="22" t="s">
+      <c r="W11" s="13"/>
+    </row>
+    <row r="12" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="20" t="s">
         <v>62</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -2709,10 +2726,10 @@
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
-      <c r="W12" s="15"/>
-    </row>
-    <row r="13" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="22" t="s">
+      <c r="W12" s="13"/>
+    </row>
+    <row r="13" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="20" t="s">
         <v>62</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -2737,10 +2754,10 @@
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
-      <c r="W13" s="15"/>
-    </row>
-    <row r="14" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="22" t="s">
+      <c r="W13" s="13"/>
+    </row>
+    <row r="14" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="20" t="s">
         <v>62</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -2765,10 +2782,10 @@
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
-      <c r="W14" s="15"/>
-    </row>
-    <row r="15" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="22" t="s">
+      <c r="W14" s="13"/>
+    </row>
+    <row r="15" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="20" t="s">
         <v>62</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -2793,10 +2810,10 @@
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
-      <c r="W15" s="15"/>
-    </row>
-    <row r="16" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="23" t="s">
+      <c r="W15" s="13"/>
+    </row>
+    <row r="16" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="21" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -2821,13 +2838,13 @@
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
-      <c r="W16" s="24"/>
-    </row>
-    <row r="17" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="53" t="s">
+      <c r="W16" s="22"/>
+    </row>
+    <row r="17" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="54"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -2847,13 +2864,13 @@
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
-      <c r="W17" s="26"/>
-    </row>
-    <row r="18" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="53" t="s">
+      <c r="W17" s="24"/>
+    </row>
+    <row r="18" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="54"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -2873,13 +2890,13 @@
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
-      <c r="W18" s="26"/>
-    </row>
-    <row r="19" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="53" t="s">
+      <c r="W18" s="24"/>
+    </row>
+    <row r="19" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="54"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -2896,16 +2913,16 @@
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="26"/>
-    </row>
-    <row r="20" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="53" t="s">
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="24"/>
+    </row>
+    <row r="20" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="54"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -2922,16 +2939,16 @@
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="26"/>
-    </row>
-    <row r="21" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="55" t="s">
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="24"/>
+    </row>
+    <row r="21" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="56"/>
+      <c r="C21" s="54"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -2951,10 +2968,10 @@
       <c r="T21" s="8"/>
       <c r="U21" s="8"/>
       <c r="V21" s="8"/>
-      <c r="W21" s="25"/>
-    </row>
-    <row r="22" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="22" t="s">
+      <c r="W21" s="23"/>
+    </row>
+    <row r="22" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="20" t="s">
         <v>62</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -2979,10 +2996,10 @@
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
-      <c r="W22" s="15"/>
-    </row>
-    <row r="23" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="22" t="s">
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="20" t="s">
         <v>62</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -3007,10 +3024,10 @@
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
-      <c r="W23" s="15"/>
-    </row>
-    <row r="24" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="22" t="s">
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="20" t="s">
         <v>62</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -3029,19 +3046,19 @@
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
-      <c r="W24" s="24"/>
-    </row>
-    <row r="25" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="55" t="s">
+      <c r="W24" s="22"/>
+    </row>
+    <row r="25" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="56"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -3061,10 +3078,10 @@
       <c r="T25" s="8"/>
       <c r="U25" s="8"/>
       <c r="V25" s="8"/>
-      <c r="W25" s="25"/>
-    </row>
-    <row r="26" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="22" t="s">
+      <c r="W25" s="23"/>
+    </row>
+    <row r="26" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="20" t="s">
         <v>62</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -3089,13 +3106,13 @@
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
-      <c r="W26" s="24"/>
-    </row>
-    <row r="27" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="55" t="s">
+      <c r="W26" s="22"/>
+    </row>
+    <row r="27" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="56"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -3115,10 +3132,10 @@
       <c r="T27" s="8"/>
       <c r="U27" s="8"/>
       <c r="V27" s="8"/>
-      <c r="W27" s="25"/>
-    </row>
-    <row r="28" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="22" t="s">
+      <c r="W27" s="23"/>
+    </row>
+    <row r="28" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="20" t="s">
         <v>62</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -3143,10 +3160,10 @@
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
-      <c r="W28" s="15"/>
-    </row>
-    <row r="29" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="22" t="s">
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="20" t="s">
         <v>62</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -3171,10 +3188,10 @@
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
-      <c r="W29" s="15"/>
-    </row>
-    <row r="30" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="22" t="s">
+      <c r="W29" s="13"/>
+    </row>
+    <row r="30" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="20" t="s">
         <v>62</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -3199,13 +3216,13 @@
       <c r="T30" s="7"/>
       <c r="U30" s="7"/>
       <c r="V30" s="7"/>
-      <c r="W30" s="27"/>
-    </row>
-    <row r="31" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="55" t="s">
+      <c r="W30" s="25"/>
+    </row>
+    <row r="31" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="56"/>
+      <c r="C31" s="54"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -3225,10 +3242,10 @@
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
       <c r="V31" s="8"/>
-      <c r="W31" s="25"/>
-    </row>
-    <row r="32" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="22" t="s">
+      <c r="W31" s="23"/>
+    </row>
+    <row r="32" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="20" t="s">
         <v>62</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -3253,10 +3270,10 @@
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
-      <c r="W32" s="15"/>
-    </row>
-    <row r="33" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="22" t="s">
+      <c r="W32" s="13"/>
+    </row>
+    <row r="33" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="20" t="s">
         <v>62</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -3281,13 +3298,13 @@
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
-      <c r="W33" s="24"/>
-    </row>
-    <row r="34" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="55" t="s">
+      <c r="W33" s="22"/>
+    </row>
+    <row r="34" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="56"/>
+      <c r="C34" s="54"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -3307,10 +3324,10 @@
       <c r="T34" s="8"/>
       <c r="U34" s="8"/>
       <c r="V34" s="8"/>
-      <c r="W34" s="25"/>
-    </row>
-    <row r="35" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="22" t="s">
+      <c r="W34" s="23"/>
+    </row>
+    <row r="35" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="20" t="s">
         <v>62</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -3335,10 +3352,10 @@
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
-      <c r="W35" s="28"/>
-    </row>
-    <row r="36" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="22" t="s">
+      <c r="W35" s="26"/>
+    </row>
+    <row r="36" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="20" t="s">
         <v>62</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -3363,10 +3380,10 @@
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
-      <c r="W36" s="28"/>
-    </row>
-    <row r="37" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="22" t="s">
+      <c r="W36" s="26"/>
+    </row>
+    <row r="37" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="20" t="s">
         <v>62</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -3391,13 +3408,13 @@
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
-      <c r="W37" s="29"/>
-    </row>
-    <row r="38" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="53" t="s">
+      <c r="W37" s="27"/>
+    </row>
+    <row r="38" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="54"/>
+      <c r="C38" s="52"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
@@ -3417,35 +3434,35 @@
       <c r="T38" s="9"/>
       <c r="U38" s="9"/>
       <c r="V38" s="9"/>
-      <c r="W38" s="30"/>
-    </row>
-    <row r="39" spans="2:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="63" t="s">
+      <c r="W38" s="28"/>
+    </row>
+    <row r="39" spans="2:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="64"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="31"/>
-      <c r="T39" s="31"/>
-      <c r="U39" s="31"/>
-      <c r="V39" s="31"/>
-      <c r="W39" s="33"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="C39" s="62"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="31"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -3469,7 +3486,7 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -3518,43 +3535,43 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
-    <col min="3" max="6" width="35.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" style="1" customWidth="1"/>
+    <col min="3" max="6" width="35.59765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
+    <row r="2" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="6" t="s">
         <v>64</v>
       </c>
@@ -3564,12 +3581,12 @@
       <c r="E2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="67" t="s">
+    <row r="3" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="65" t="s">
         <v>69</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -3584,12 +3601,12 @@
       <c r="E3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="67"/>
+    <row r="4" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="65"/>
       <c r="B4" s="3" t="s">
         <v>78</v>
       </c>
@@ -3600,10 +3617,10 @@
         <v>79</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="15"/>
-    </row>
-    <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="67"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="65"/>
       <c r="B5" s="3" t="s">
         <v>81</v>
       </c>
@@ -3612,12 +3629,12 @@
       <c r="E5" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="67"/>
+    <row r="6" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="65"/>
       <c r="B6" s="3" t="s">
         <v>84</v>
       </c>
@@ -3630,12 +3647,12 @@
       <c r="E6" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="67"/>
+    <row r="7" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="65"/>
       <c r="B7" s="3" t="s">
         <v>88</v>
       </c>
@@ -3644,10 +3661,10 @@
         <v>88</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="67"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="65"/>
       <c r="B8" s="3" t="s">
         <v>89</v>
       </c>
@@ -3658,10 +3675,10 @@
       <c r="E8" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="67"/>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="65"/>
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
@@ -3674,22 +3691,22 @@
       <c r="E9" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="67"/>
+    <row r="10" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="65"/>
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="1:6" s="14" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="68"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="66"/>
       <c r="B11" s="4" t="s">
         <v>107</v>
       </c>
@@ -3702,12 +3719,12 @@
       <c r="E11" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="22" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="71" t="s">
+    <row r="12" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="69" t="s">
         <v>70</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -3718,10 +3735,10 @@
       <c r="E12" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="25"/>
-    </row>
-    <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="67"/>
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="65"/>
       <c r="B13" s="3" t="s">
         <v>96</v>
       </c>
@@ -3734,12 +3751,12 @@
       <c r="E13" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="67"/>
+    <row r="14" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="65"/>
       <c r="B14" s="3" t="s">
         <v>95</v>
       </c>
@@ -3752,12 +3769,12 @@
       <c r="E14" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="67"/>
+    <row r="15" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="65"/>
       <c r="B15" s="3" t="s">
         <v>114</v>
       </c>
@@ -3766,12 +3783,12 @@
       <c r="E15" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="67"/>
+    <row r="16" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="65"/>
       <c r="B16" s="3" t="s">
         <v>97</v>
       </c>
@@ -3784,12 +3801,12 @@
       <c r="E16" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="68"/>
+    <row r="17" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="66"/>
       <c r="B17" s="4" t="s">
         <v>107</v>
       </c>
@@ -3802,32 +3819,32 @@
       <c r="E17" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="22" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="69" t="s">
+    <row r="18" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="38" t="s">
+      <c r="F18" s="36" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="67"/>
+    <row r="19" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="65"/>
       <c r="B19" s="3" t="s">
         <v>117</v>
       </c>
@@ -3840,32 +3857,32 @@
       <c r="E19" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="13" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="67"/>
+    <row r="20" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="65"/>
       <c r="B20" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="67"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="65"/>
       <c r="B21" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="15"/>
-    </row>
-    <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="67"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="65"/>
       <c r="B22" s="3" t="s">
         <v>120</v>
       </c>
@@ -3876,28 +3893,28 @@
       <c r="E22" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="70"/>
-      <c r="B23" s="16" t="s">
+    <row r="23" spans="1:6" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="68"/>
+      <c r="B23" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17"/>
-    </row>
-    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-    </row>
-    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-    </row>
-    <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24"/>
+    </row>
+    <row r="25" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25"/>
+    </row>
+    <row r="26" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3914,44 +3931,44 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="23" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="39" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>137</v>
       </c>
@@ -3971,7 +3988,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>137</v>
       </c>
@@ -3991,7 +4008,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>137</v>
       </c>
@@ -4011,7 +4028,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>137</v>
       </c>
@@ -4031,7 +4048,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>137</v>
       </c>
@@ -4051,7 +4068,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>137</v>
       </c>
@@ -4071,7 +4088,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>142</v>
       </c>
@@ -4091,7 +4108,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>148</v>
       </c>
@@ -4111,7 +4128,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>148</v>
       </c>
@@ -4131,7 +4148,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>250</v>
       </c>
@@ -4151,7 +4168,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>148</v>
       </c>
@@ -4171,7 +4188,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>148</v>
       </c>
@@ -4191,7 +4208,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>148</v>
       </c>
@@ -4211,7 +4228,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>148</v>
       </c>
@@ -4231,7 +4248,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>257</v>
       </c>
@@ -4241,7 +4258,7 @@
       <c r="C16" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="40" t="s">
         <v>264</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -4251,7 +4268,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>257</v>
       </c>
@@ -4271,7 +4288,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>257</v>
       </c>
@@ -4291,7 +4308,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>257</v>
       </c>
@@ -4311,7 +4328,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>257</v>
       </c>
@@ -4331,7 +4348,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>257</v>
       </c>
@@ -4351,7 +4368,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>257</v>
       </c>
@@ -4371,7 +4388,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>257</v>
       </c>
@@ -4391,7 +4408,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>284</v>
       </c>
@@ -4411,7 +4428,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>284</v>
       </c>
@@ -4431,7 +4448,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>285</v>
       </c>
@@ -4451,7 +4468,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>287</v>
       </c>
@@ -4471,7 +4488,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>289</v>
       </c>
@@ -4491,32 +4508,66 @@
         <v>282</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="F36" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F36"/>
+  <autoFilter ref="A1:F36" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4524,44 +4575,44 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="23" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="37" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>211</v>
       </c>
@@ -4581,7 +4632,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>211</v>
       </c>
@@ -4601,7 +4652,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>222</v>
       </c>
@@ -4621,7 +4672,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>148</v>
       </c>
@@ -4641,7 +4692,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>148</v>
       </c>
@@ -4661,7 +4712,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>148</v>
       </c>
@@ -4681,7 +4732,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>156</v>
       </c>
@@ -4701,7 +4752,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>156</v>
       </c>
@@ -4721,7 +4772,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>156</v>
       </c>
@@ -4741,7 +4792,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>156</v>
       </c>
@@ -4761,7 +4812,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>156</v>
       </c>
@@ -4781,7 +4832,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>168</v>
       </c>
@@ -4801,7 +4852,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>168</v>
       </c>
@@ -4821,7 +4872,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>173</v>
       </c>
@@ -4841,7 +4892,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>173</v>
       </c>
@@ -4861,7 +4912,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>173</v>
       </c>
@@ -4881,7 +4932,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>173</v>
       </c>
@@ -4901,7 +4952,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>178</v>
       </c>
@@ -4921,7 +4972,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>175</v>
       </c>
@@ -4941,7 +4992,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>182</v>
       </c>
@@ -4961,7 +5012,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>176</v>
       </c>

--- a/최종산출물/1-4 기능정의서.xlsx
+++ b/최종산출물/1-4 기능정의서.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\유진영\Documents\GitHub\1-4\최종산출물\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\1-4\최종산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1FB1F8-A60B-435D-80EA-7FFA45650983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="228" yWindow="1296" windowWidth="13056" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="225" yWindow="1290" windowWidth="13050" windowHeight="8970" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">m!$A$1:$F$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">pc!$A$1:$F$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">pc!$A$1:$F$39</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="333">
   <si>
     <t>WBS 일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1163,28 +1162,180 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>click , alert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click, alert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 버튼 클릭시 회원가입 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>php, JS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">php, JS </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click, alert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>php, JS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 화면 하단 회원정보수정 버튼 클릭시 
+회원정보 수정 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유진영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc-register-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>click, alert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc-register-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc-register-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 화면 하단 로그아웃 버튼 클릭시
+ logout.php로 연결되어
+'로그아웃 되었습니다' 라는 alert 뜨고 세션이 종료되며
+ 로그인화면으로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름, 아이디, 패스워드를 모두 입력 후 
+하단 회원정보수정 버튼 클릭시 
+register_update.php로 연결되어
+'회원수정이 완료 되었습니다.'라는 alert 뜨고
+ login.php 회원정보 화면으로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름, 아이디, 패스워드를 모두 입력 후 
+하단 회원가입 버튼 클릭시
+ register_update.php로 연결되어
+'회원가입이 완료되었습니다.' 라는 
+alert 뜨고 로그인페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디, 비밀번호 입력 후 로그인버튼 클릭시 
+login_checkout.php로 연결되어
+'로그인 되었습니다'라는 alert 뜨고 회원정보가 나타남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc-login-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc-login-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디, 비밀번호를 입력하지 않고 로그인버튼 클릭시 login_checkout.php로 연결되어 
+'아이디 또는 비밀번호를 입력해주세요.'라는 alert가 뜸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록되지 않은 아이디 입력 후 로그인 버튼 클릭시
+login_checkout.php로 연결되어 
+'일치하는 아이디가 없습니다.'라는 alert가 뜸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc-login-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc-login-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc-login-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc-login-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>pc-login-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이디, 비밀번호 입력 후 로그인버튼 클릭시 
-'로그인 되었습니다'라는 alert 뜨고 회원정보가 나타남</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디, 비밀번호를 입력하지 않고 로그인버튼 클릭시 
-'아이디 또는 비밀번호를 입력해주세요.'라는 alert가 뜸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc-login-2</t>
+    <t>틀린 비밀번호 입력 후 로그인 버튼 클릭시
+login_checkout.php로 연결되어 
+'비밀번호가 일치하지 않습니다.'라는 alert가 뜸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원수정 화면에서
+이름, 아이디, 비밀번호 중 하나라도 입력 안 할 시 register_update.php로 연결되어 
+'_가 넘어오지 않았습니다.'라는 alert 뜸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc-register-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc-register-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 화면에서 하단 취소버튼 클릭시, 
+login.php 회원정보로 돌아감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원수정 입력 화면에서 하단 취소버튼 클릭시, 
+login.php 회원정보로 돌아감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register(register.php)</t>
+  </si>
+  <si>
+    <t>register(register.php)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register(register.php)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1968,6 +2119,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1998,18 +2167,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2026,12 +2183,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2340,77 +2491,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W41"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.19921875" customWidth="1"/>
-    <col min="3" max="3" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="47" t="s">
+    <row r="1" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="41" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="43"/>
-    </row>
-    <row r="3" spans="2:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="49"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="46"/>
-    </row>
-    <row r="4" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="55" t="s">
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="49"/>
+    </row>
+    <row r="3" spans="2:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="52"/>
+    </row>
+    <row r="4" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="56"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="5" t="s">
         <v>34</v>
       </c>
@@ -2472,9 +2623,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="57"/>
-      <c r="C5" s="58"/>
+    <row r="5" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="6" t="s">
         <v>36</v>
       </c>
@@ -2536,11 +2687,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="59" t="s">
+    <row r="6" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="60"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -2562,7 +2713,7 @@
       <c r="V6" s="3"/>
       <c r="W6" s="13"/>
     </row>
-    <row r="7" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="20" t="s">
         <v>61</v>
       </c>
@@ -2590,7 +2741,7 @@
       <c r="V7" s="3"/>
       <c r="W7" s="13"/>
     </row>
-    <row r="8" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="20" t="s">
         <v>61</v>
       </c>
@@ -2618,7 +2769,7 @@
       <c r="V8" s="3"/>
       <c r="W8" s="13"/>
     </row>
-    <row r="9" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="21" t="s">
         <v>61</v>
       </c>
@@ -2646,11 +2797,11 @@
       <c r="V9" s="4"/>
       <c r="W9" s="22"/>
     </row>
-    <row r="10" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="53" t="s">
+    <row r="10" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="54"/>
+      <c r="C10" s="44"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -2672,7 +2823,7 @@
       <c r="V10" s="8"/>
       <c r="W10" s="23"/>
     </row>
-    <row r="11" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="20" t="s">
         <v>62</v>
       </c>
@@ -2700,7 +2851,7 @@
       <c r="V11" s="3"/>
       <c r="W11" s="13"/>
     </row>
-    <row r="12" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="20" t="s">
         <v>62</v>
       </c>
@@ -2728,7 +2879,7 @@
       <c r="V12" s="3"/>
       <c r="W12" s="13"/>
     </row>
-    <row r="13" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="20" t="s">
         <v>62</v>
       </c>
@@ -2756,7 +2907,7 @@
       <c r="V13" s="3"/>
       <c r="W13" s="13"/>
     </row>
-    <row r="14" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="20" t="s">
         <v>62</v>
       </c>
@@ -2784,7 +2935,7 @@
       <c r="V14" s="3"/>
       <c r="W14" s="13"/>
     </row>
-    <row r="15" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="20" t="s">
         <v>62</v>
       </c>
@@ -2812,7 +2963,7 @@
       <c r="V15" s="3"/>
       <c r="W15" s="13"/>
     </row>
-    <row r="16" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="21" t="s">
         <v>61</v>
       </c>
@@ -2840,11 +2991,11 @@
       <c r="V16" s="4"/>
       <c r="W16" s="22"/>
     </row>
-    <row r="17" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="51" t="s">
+    <row r="17" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="52"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -2866,11 +3017,11 @@
       <c r="V17" s="9"/>
       <c r="W17" s="24"/>
     </row>
-    <row r="18" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="51" t="s">
+    <row r="18" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="52"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -2892,11 +3043,11 @@
       <c r="V18" s="9"/>
       <c r="W18" s="24"/>
     </row>
-    <row r="19" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="51" t="s">
+    <row r="19" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="52"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -2918,11 +3069,11 @@
       <c r="V19" s="32"/>
       <c r="W19" s="24"/>
     </row>
-    <row r="20" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="51" t="s">
+    <row r="20" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="52"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -2944,11 +3095,11 @@
       <c r="V20" s="33"/>
       <c r="W20" s="24"/>
     </row>
-    <row r="21" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="53" t="s">
+    <row r="21" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="54"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -2970,7 +3121,7 @@
       <c r="V21" s="8"/>
       <c r="W21" s="23"/>
     </row>
-    <row r="22" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="20" t="s">
         <v>62</v>
       </c>
@@ -2998,7 +3149,7 @@
       <c r="V22" s="3"/>
       <c r="W22" s="13"/>
     </row>
-    <row r="23" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="20" t="s">
         <v>62</v>
       </c>
@@ -3026,7 +3177,7 @@
       <c r="V23" s="3"/>
       <c r="W23" s="13"/>
     </row>
-    <row r="24" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="20" t="s">
         <v>62</v>
       </c>
@@ -3054,11 +3205,11 @@
       <c r="V24" s="4"/>
       <c r="W24" s="22"/>
     </row>
-    <row r="25" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="53" t="s">
+    <row r="25" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="54"/>
+      <c r="C25" s="44"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -3080,7 +3231,7 @@
       <c r="V25" s="8"/>
       <c r="W25" s="23"/>
     </row>
-    <row r="26" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="20" t="s">
         <v>62</v>
       </c>
@@ -3108,11 +3259,11 @@
       <c r="V26" s="4"/>
       <c r="W26" s="22"/>
     </row>
-    <row r="27" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="53" t="s">
+    <row r="27" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="54"/>
+      <c r="C27" s="44"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -3134,7 +3285,7 @@
       <c r="V27" s="8"/>
       <c r="W27" s="23"/>
     </row>
-    <row r="28" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="20" t="s">
         <v>62</v>
       </c>
@@ -3162,7 +3313,7 @@
       <c r="V28" s="3"/>
       <c r="W28" s="13"/>
     </row>
-    <row r="29" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="20" t="s">
         <v>62</v>
       </c>
@@ -3190,7 +3341,7 @@
       <c r="V29" s="3"/>
       <c r="W29" s="13"/>
     </row>
-    <row r="30" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="20" t="s">
         <v>62</v>
       </c>
@@ -3218,11 +3369,11 @@
       <c r="V30" s="7"/>
       <c r="W30" s="25"/>
     </row>
-    <row r="31" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="53" t="s">
+    <row r="31" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="54"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -3244,7 +3395,7 @@
       <c r="V31" s="8"/>
       <c r="W31" s="23"/>
     </row>
-    <row r="32" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="20" t="s">
         <v>62</v>
       </c>
@@ -3272,7 +3423,7 @@
       <c r="V32" s="3"/>
       <c r="W32" s="13"/>
     </row>
-    <row r="33" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="20" t="s">
         <v>62</v>
       </c>
@@ -3300,11 +3451,11 @@
       <c r="V33" s="4"/>
       <c r="W33" s="22"/>
     </row>
-    <row r="34" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="53" t="s">
+    <row r="34" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="54"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -3326,7 +3477,7 @@
       <c r="V34" s="8"/>
       <c r="W34" s="23"/>
     </row>
-    <row r="35" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="20" t="s">
         <v>62</v>
       </c>
@@ -3354,7 +3505,7 @@
       <c r="V35" s="3"/>
       <c r="W35" s="26"/>
     </row>
-    <row r="36" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="20" t="s">
         <v>62</v>
       </c>
@@ -3382,7 +3533,7 @@
       <c r="V36" s="3"/>
       <c r="W36" s="26"/>
     </row>
-    <row r="37" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="20" t="s">
         <v>62</v>
       </c>
@@ -3410,11 +3561,11 @@
       <c r="V37" s="4"/>
       <c r="W37" s="27"/>
     </row>
-    <row r="38" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="51" t="s">
+    <row r="38" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="52"/>
+      <c r="C38" s="46"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
@@ -3436,11 +3587,11 @@
       <c r="V38" s="9"/>
       <c r="W38" s="28"/>
     </row>
-    <row r="39" spans="2:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="61" t="s">
+    <row r="39" spans="2:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="62"/>
+      <c r="C39" s="42"/>
       <c r="D39" s="29"/>
       <c r="E39" s="29"/>
       <c r="F39" s="29"/>
@@ -3462,7 +3613,7 @@
       <c r="V39" s="29"/>
       <c r="W39" s="31"/>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -3486,7 +3637,7 @@
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -3512,13 +3663,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="D2:W3"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B38:C38"/>
@@ -3528,6 +3672,13 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B4:C5"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3535,21 +3686,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3984375" style="1" customWidth="1"/>
-    <col min="3" max="6" width="35.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
+    <col min="3" max="6" width="35.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
         <v>73</v>
       </c>
@@ -3569,9 +3720,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58"/>
+    <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="6" t="s">
         <v>64</v>
       </c>
@@ -3585,7 +3736,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65" t="s">
         <v>69</v>
       </c>
@@ -3605,7 +3756,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
       <c r="B4" s="3" t="s">
         <v>78</v>
@@ -3619,7 +3770,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
       <c r="B5" s="3" t="s">
         <v>81</v>
@@ -3633,7 +3784,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
       <c r="B6" s="3" t="s">
         <v>84</v>
@@ -3651,7 +3802,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
       <c r="B7" s="3" t="s">
         <v>88</v>
@@ -3663,7 +3814,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="65"/>
       <c r="B8" s="3" t="s">
         <v>89</v>
@@ -3677,7 +3828,7 @@
       </c>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="65"/>
       <c r="B9" s="3" t="s">
         <v>12</v>
@@ -3695,7 +3846,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="65"/>
       <c r="B10" s="3" t="s">
         <v>13</v>
@@ -3705,7 +3856,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="66"/>
       <c r="B11" s="4" t="s">
         <v>107</v>
@@ -3723,7 +3874,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="69" t="s">
         <v>70</v>
       </c>
@@ -3737,7 +3888,7 @@
       </c>
       <c r="F12" s="23"/>
     </row>
-    <row r="13" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="65"/>
       <c r="B13" s="3" t="s">
         <v>96</v>
@@ -3755,7 +3906,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="65"/>
       <c r="B14" s="3" t="s">
         <v>95</v>
@@ -3773,7 +3924,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="65"/>
       <c r="B15" s="3" t="s">
         <v>114</v>
@@ -3787,7 +3938,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="65"/>
       <c r="B16" s="3" t="s">
         <v>97</v>
@@ -3805,7 +3956,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="66"/>
       <c r="B17" s="4" t="s">
         <v>107</v>
@@ -3823,7 +3974,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="67" t="s">
         <v>71</v>
       </c>
@@ -3843,7 +3994,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="65"/>
       <c r="B19" s="3" t="s">
         <v>117</v>
@@ -3861,7 +4012,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="65"/>
       <c r="B20" s="3" t="s">
         <v>118</v>
@@ -3871,7 +4022,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="13"/>
     </row>
-    <row r="21" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="65"/>
       <c r="B21" s="3" t="s">
         <v>119</v>
@@ -3881,7 +4032,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="13"/>
     </row>
-    <row r="22" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="65"/>
       <c r="B22" s="3" t="s">
         <v>120</v>
@@ -3897,7 +4048,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="68"/>
       <c r="B23" s="14" t="s">
         <v>107</v>
@@ -3907,13 +4058,13 @@
       <c r="E23" s="14"/>
       <c r="F23" s="15"/>
     </row>
-    <row r="24" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25"/>
     </row>
-    <row r="26" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26"/>
     </row>
   </sheetData>
@@ -3931,24 +4082,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F40" sqref="A1:F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.19921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.09765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>136</v>
       </c>
@@ -3968,7 +4119,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>137</v>
       </c>
@@ -3988,7 +4139,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>137</v>
       </c>
@@ -4008,7 +4159,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>137</v>
       </c>
@@ -4028,7 +4179,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>137</v>
       </c>
@@ -4048,7 +4199,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>137</v>
       </c>
@@ -4068,7 +4219,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>137</v>
       </c>
@@ -4088,7 +4239,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>142</v>
       </c>
@@ -4108,7 +4259,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>148</v>
       </c>
@@ -4128,7 +4279,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>148</v>
       </c>
@@ -4148,7 +4299,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>250</v>
       </c>
@@ -4168,7 +4319,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>148</v>
       </c>
@@ -4188,7 +4339,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>148</v>
       </c>
@@ -4208,7 +4359,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>148</v>
       </c>
@@ -4228,7 +4379,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>148</v>
       </c>
@@ -4248,7 +4399,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>257</v>
       </c>
@@ -4268,7 +4419,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>257</v>
       </c>
@@ -4288,7 +4439,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>257</v>
       </c>
@@ -4308,7 +4459,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>257</v>
       </c>
@@ -4328,7 +4479,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>257</v>
       </c>
@@ -4348,7 +4499,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>257</v>
       </c>
@@ -4368,7 +4519,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>257</v>
       </c>
@@ -4388,7 +4539,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>257</v>
       </c>
@@ -4408,7 +4559,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>284</v>
       </c>
@@ -4428,7 +4579,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>284</v>
       </c>
@@ -4448,7 +4599,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>285</v>
       </c>
@@ -4468,7 +4619,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>287</v>
       </c>
@@ -4488,7 +4639,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>289</v>
       </c>
@@ -4508,66 +4659,248 @@
         <v>282</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>295</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>144</v>
+        <v>297</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>254</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.4">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>295</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>144</v>
+        <v>297</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>254</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="6:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="6:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="6:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="6:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F36" s="1"/>
+    <row r="34" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>328</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>329</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D40" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>303</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F36" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:F39"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4575,24 +4908,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.19921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.09765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>136</v>
       </c>
@@ -4612,7 +4945,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>211</v>
       </c>
@@ -4632,7 +4965,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>211</v>
       </c>
@@ -4652,7 +4985,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>222</v>
       </c>
@@ -4672,7 +5005,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>148</v>
       </c>
@@ -4692,7 +5025,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>148</v>
       </c>
@@ -4712,7 +5045,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>148</v>
       </c>
@@ -4732,7 +5065,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>156</v>
       </c>
@@ -4752,7 +5085,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>156</v>
       </c>
@@ -4772,7 +5105,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>156</v>
       </c>
@@ -4792,7 +5125,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>156</v>
       </c>
@@ -4812,7 +5145,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>156</v>
       </c>
@@ -4832,7 +5165,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>168</v>
       </c>
@@ -4852,7 +5185,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>168</v>
       </c>
@@ -4872,7 +5205,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>173</v>
       </c>
@@ -4892,7 +5225,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>173</v>
       </c>
@@ -4912,7 +5245,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>173</v>
       </c>
@@ -4932,7 +5265,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>173</v>
       </c>
@@ -4952,7 +5285,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>178</v>
       </c>
@@ -4972,7 +5305,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>175</v>
       </c>
@@ -4992,7 +5325,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>182</v>
       </c>
@@ -5012,7 +5345,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>176</v>
       </c>

--- a/최종산출물/1-4 기능정의서.xlsx
+++ b/최종산출물/1-4 기능정의서.xlsx
@@ -1114,27 +1114,11 @@
     <t>pc-list-2</t>
   </si>
   <si>
-    <t>notice(notice_list.php)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice(notice_write.php)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pc-write-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>notice(notice_view.php)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pc-view-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice(notice_confirm.php)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1329,6 +1313,22 @@
   </si>
   <si>
     <t>register(register.php)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice(noticeconfirm.php)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice(noticeview.php)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice(noticewrite.php)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice(noticelist.php)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2119,70 +2119,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2506,62 +2506,62 @@
   <sheetData>
     <row r="1" spans="2:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="47" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="49"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="43"/>
     </row>
     <row r="3" spans="2:23" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="52"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="46"/>
     </row>
     <row r="4" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="58"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="5" t="s">
         <v>34</v>
       </c>
@@ -2624,8 +2624,8 @@
       </c>
     </row>
     <row r="5" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="59"/>
-      <c r="C5" s="60"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="6" t="s">
         <v>36</v>
       </c>
@@ -2688,10 +2688,10 @@
       </c>
     </row>
     <row r="6" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="62"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -2798,10 +2798,10 @@
       <c r="W9" s="22"/>
     </row>
     <row r="10" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="44"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -2992,10 +2992,10 @@
       <c r="W16" s="22"/>
     </row>
     <row r="17" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="46"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -3018,10 +3018,10 @@
       <c r="W17" s="24"/>
     </row>
     <row r="18" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="46"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -3044,10 +3044,10 @@
       <c r="W18" s="24"/>
     </row>
     <row r="19" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="46"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -3070,10 +3070,10 @@
       <c r="W19" s="24"/>
     </row>
     <row r="20" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="46"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -3096,10 +3096,10 @@
       <c r="W20" s="24"/>
     </row>
     <row r="21" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="44"/>
+      <c r="C21" s="54"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -3206,10 +3206,10 @@
       <c r="W24" s="22"/>
     </row>
     <row r="25" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="44"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -3260,10 +3260,10 @@
       <c r="W26" s="22"/>
     </row>
     <row r="27" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="44"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -3370,10 +3370,10 @@
       <c r="W30" s="25"/>
     </row>
     <row r="31" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="44"/>
+      <c r="C31" s="54"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
@@ -3452,10 +3452,10 @@
       <c r="W33" s="22"/>
     </row>
     <row r="34" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="44"/>
+      <c r="C34" s="54"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -3562,10 +3562,10 @@
       <c r="W37" s="27"/>
     </row>
     <row r="38" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="46"/>
+      <c r="C38" s="52"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
@@ -3588,10 +3588,10 @@
       <c r="W38" s="28"/>
     </row>
     <row r="39" spans="2:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="42"/>
+      <c r="C39" s="62"/>
       <c r="D39" s="29"/>
       <c r="E39" s="29"/>
       <c r="F39" s="29"/>
@@ -3663,6 +3663,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="D2:W3"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B38:C38"/>
@@ -3672,13 +3679,6 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B4:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3721,8 +3721,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="6" t="s">
         <v>64</v>
       </c>
@@ -4085,8 +4085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F40" sqref="A1:F40"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>284</v>
+        <v>332</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>279</v>
@@ -4581,7 +4581,7 @@
     </row>
     <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>284</v>
+        <v>332</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>283</v>
@@ -4590,7 +4590,7 @@
         <v>229</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>281</v>
@@ -4601,16 +4601,16 @@
     </row>
     <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>285</v>
+        <v>331</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>229</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>281</v>
@@ -4621,16 +4621,16 @@
     </row>
     <row r="27" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>287</v>
+        <v>330</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>229</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>281</v>
@@ -4641,16 +4641,16 @@
     </row>
     <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>289</v>
+        <v>329</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>229</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>281</v>
@@ -4661,96 +4661,96 @@
     </row>
     <row r="29" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>254</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>254</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>254</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>254</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>254</v>
@@ -4761,142 +4761,142 @@
     </row>
     <row r="34" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>254</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>254</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>254</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>254</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>254</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
